--- a/Documentation/1. Project Plan.xlsx
+++ b/Documentation/1. Project Plan.xlsx
@@ -376,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border/>
     <border>
       <left style="thin">
@@ -616,6 +616,13 @@
     <border>
       <left/>
       <right/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <bottom/>
     </border>
     <border>
@@ -633,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -798,7 +805,13 @@
     <xf borderId="17" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="15" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="29" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="13" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -827,10 +840,10 @@
     <xf borderId="10" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="29" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="30" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="31" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1528,7 +1541,7 @@
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
-      <c r="L12" s="44"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="53"/>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -1562,10 +1575,10 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="44"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="N13" s="51"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="41"/>
@@ -1600,7 +1613,7 @@
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
-      <c r="N14" s="44"/>
+      <c r="N14" s="64"/>
       <c r="O14" s="41"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -1635,7 +1648,7 @@
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
-      <c r="N15" s="44"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="41"/>
       <c r="P15" s="41"/>
       <c r="Q15" s="41"/>
@@ -1670,7 +1683,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
-      <c r="N16" s="44"/>
+      <c r="N16" s="62"/>
       <c r="O16" s="41"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="41"/>
@@ -1706,7 +1719,7 @@
       <c r="L17" s="41"/>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
-      <c r="O17" s="63"/>
+      <c r="O17" s="65"/>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
@@ -1741,7 +1754,7 @@
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
-      <c r="O18" s="63"/>
+      <c r="O18" s="65"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -1776,7 +1789,7 @@
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="63"/>
+      <c r="O19" s="65"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="41"/>
       <c r="R19" s="41"/>
@@ -1808,10 +1821,10 @@
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="64"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
-      <c r="O20" s="63"/>
+      <c r="O20" s="65"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
@@ -1822,7 +1835,7 @@
       <c r="W20" s="41"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="65"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="38" t="s">
         <v>33</v>
       </c>
@@ -1846,7 +1859,7 @@
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
-      <c r="O21" s="63"/>
+      <c r="O21" s="65"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
@@ -1857,31 +1870,31 @@
       <c r="W21" s="41"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="40" t="s">
@@ -1900,7 +1913,7 @@
       <c r="F23" s="42">
         <v>44663.0</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="69">
         <v>1.0</v>
       </c>
       <c r="H23" s="41"/>
@@ -1914,7 +1927,7 @@
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
-      <c r="S23" s="63"/>
+      <c r="S23" s="65"/>
       <c r="T23" s="41"/>
       <c r="U23" s="41"/>
       <c r="V23" s="41"/>
@@ -1925,7 +1938,7 @@
       <c r="B24" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="68"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="41" t="s">
         <v>37</v>
       </c>
@@ -1935,7 +1948,7 @@
       <c r="F24" s="42">
         <v>44663.0</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="69">
         <v>1.0</v>
       </c>
       <c r="H24" s="41"/>
@@ -1949,14 +1962,14 @@
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
-      <c r="S24" s="63"/>
+      <c r="S24" s="65"/>
       <c r="T24" s="41"/>
       <c r="U24" s="41"/>
       <c r="V24" s="41"/>
       <c r="W24" s="41"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="47"/>
@@ -1986,7 +1999,7 @@
       <c r="O25" s="41"/>
       <c r="P25" s="41"/>
       <c r="Q25" s="41"/>
-      <c r="R25" s="63"/>
+      <c r="R25" s="65"/>
       <c r="S25" s="41"/>
       <c r="T25" s="41"/>
       <c r="U25" s="41"/>
@@ -1995,7 +2008,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="72" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="53"/>
@@ -2008,21 +2021,21 @@
       <c r="F26" s="42">
         <v>44663.0</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="69">
         <v>1.0</v>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
-      <c r="L26" s="71"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
       <c r="O26" s="41"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="41"/>
-      <c r="S26" s="72"/>
+      <c r="S26" s="74"/>
       <c r="T26" s="41"/>
       <c r="U26" s="41"/>
       <c r="V26" s="41"/>
@@ -2030,7 +2043,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="72" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="53"/>
@@ -2043,7 +2056,7 @@
       <c r="F27" s="42">
         <v>44663.0</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="69">
         <v>1.0</v>
       </c>
       <c r="H27" s="41"/>
@@ -2057,7 +2070,7 @@
       <c r="P27" s="41"/>
       <c r="Q27" s="41"/>
       <c r="R27" s="41"/>
-      <c r="S27" s="72"/>
+      <c r="S27" s="74"/>
       <c r="T27" s="41"/>
       <c r="U27" s="41"/>
       <c r="V27" s="41"/>
@@ -2065,11 +2078,11 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="72" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="53"/>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="75" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="42">
@@ -2078,7 +2091,7 @@
       <c r="F28" s="42">
         <v>44663.0</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="69">
         <v>1.0</v>
       </c>
       <c r="H28" s="41"/>
@@ -2092,19 +2105,19 @@
       <c r="P28" s="41"/>
       <c r="Q28" s="41"/>
       <c r="R28" s="41"/>
-      <c r="S28" s="72"/>
+      <c r="S28" s="74"/>
       <c r="T28" s="41"/>
       <c r="U28" s="41"/>
       <c r="V28" s="41"/>
       <c r="W28" s="41"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="72" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="53"/>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="75" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="42">
@@ -2113,7 +2126,7 @@
       <c r="F29" s="42">
         <v>44663.0</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="69">
         <v>1.0</v>
       </c>
       <c r="H29" s="41"/>
@@ -2127,48 +2140,48 @@
       <c r="P29" s="41"/>
       <c r="Q29" s="41"/>
       <c r="R29" s="41"/>
-      <c r="S29" s="72"/>
+      <c r="S29" s="74"/>
       <c r="T29" s="41"/>
       <c r="U29" s="41"/>
       <c r="V29" s="41"/>
       <c r="W29" s="41"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="34"/>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="80" t="s">
         <v>50</v>
       </c>
       <c r="E31" s="60">
@@ -2177,7 +2190,7 @@
       <c r="F31" s="60">
         <v>44670.0</v>
       </c>
-      <c r="G31" s="79">
+      <c r="G31" s="81">
         <v>1.0</v>
       </c>
       <c r="H31" s="53"/>
@@ -2191,7 +2204,7 @@
       <c r="P31" s="53"/>
       <c r="Q31" s="53"/>
       <c r="R31" s="53"/>
-      <c r="S31" s="80"/>
+      <c r="S31" s="82"/>
       <c r="T31" s="53"/>
       <c r="U31" s="53"/>
       <c r="V31" s="53"/>
@@ -2212,7 +2225,7 @@
       <c r="F32" s="42">
         <v>44670.0</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="69">
         <v>1.0</v>
       </c>
       <c r="H32" s="41"/>
@@ -2226,7 +2239,7 @@
       <c r="P32" s="41"/>
       <c r="Q32" s="41"/>
       <c r="R32" s="41"/>
-      <c r="S32" s="72"/>
+      <c r="S32" s="74"/>
       <c r="T32" s="41"/>
       <c r="U32" s="41"/>
       <c r="V32" s="41"/>
@@ -2259,14 +2272,14 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="47"/>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="83" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="41"/>
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="82"/>
+      <c r="G34" s="84"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
@@ -2311,7 +2324,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="47"/>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="83" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="34"/>
@@ -2351,7 +2364,7 @@
       <c r="F37" s="42">
         <v>44670.0</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="69">
         <v>1.0</v>
       </c>
       <c r="H37" s="41"/>
@@ -2365,7 +2378,7 @@
       <c r="P37" s="41"/>
       <c r="Q37" s="41"/>
       <c r="R37" s="41"/>
-      <c r="S37" s="72"/>
+      <c r="S37" s="74"/>
       <c r="T37" s="41"/>
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
@@ -2398,7 +2411,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="47"/>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="83" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="34"/>
@@ -2438,7 +2451,7 @@
       <c r="F40" s="42">
         <v>44670.0</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="69">
         <v>1.0</v>
       </c>
       <c r="H40" s="41"/>
@@ -2452,7 +2465,7 @@
       <c r="P40" s="41"/>
       <c r="Q40" s="41"/>
       <c r="R40" s="41"/>
-      <c r="S40" s="72"/>
+      <c r="S40" s="74"/>
       <c r="T40" s="41"/>
       <c r="U40" s="41"/>
       <c r="V40" s="41"/>
@@ -2473,7 +2486,7 @@
       <c r="F41" s="42">
         <v>44670.0</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="69">
         <v>1.0</v>
       </c>
       <c r="H41" s="41"/>
@@ -2487,7 +2500,7 @@
       <c r="P41" s="41"/>
       <c r="Q41" s="41"/>
       <c r="R41" s="41"/>
-      <c r="S41" s="72"/>
+      <c r="S41" s="74"/>
       <c r="T41" s="41"/>
       <c r="U41" s="41"/>
       <c r="V41" s="41"/>
@@ -2508,7 +2521,7 @@
       <c r="F42" s="42">
         <v>44670.0</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="69">
         <v>1.0</v>
       </c>
       <c r="H42" s="41"/>
@@ -2522,7 +2535,7 @@
       <c r="P42" s="41"/>
       <c r="Q42" s="41"/>
       <c r="R42" s="41"/>
-      <c r="S42" s="72"/>
+      <c r="S42" s="74"/>
       <c r="T42" s="41"/>
       <c r="U42" s="41"/>
       <c r="V42" s="41"/>
@@ -2543,7 +2556,7 @@
       <c r="F43" s="42">
         <v>44670.0</v>
       </c>
-      <c r="G43" s="67">
+      <c r="G43" s="69">
         <v>1.0</v>
       </c>
       <c r="H43" s="41"/>
@@ -2557,7 +2570,7 @@
       <c r="P43" s="41"/>
       <c r="Q43" s="41"/>
       <c r="R43" s="41"/>
-      <c r="S43" s="72"/>
+      <c r="S43" s="74"/>
       <c r="T43" s="41"/>
       <c r="U43" s="41"/>
       <c r="V43" s="41"/>
@@ -2570,7 +2583,7 @@
       <c r="D44" s="41"/>
       <c r="E44" s="42"/>
       <c r="F44" s="42"/>
-      <c r="G44" s="82"/>
+      <c r="G44" s="84"/>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
@@ -2590,16 +2603,16 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="47"/>
-      <c r="B45" s="81" t="s">
+      <c r="B45" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="34"/>
       <c r="D45" s="41"/>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
-      <c r="G45" s="82"/>
+      <c r="G45" s="84"/>
       <c r="H45" s="41"/>
-      <c r="I45" s="83"/>
+      <c r="I45" s="85"/>
       <c r="J45" s="41"/>
       <c r="K45" s="41"/>
       <c r="L45" s="41"/>
@@ -2630,7 +2643,7 @@
       <c r="F46" s="42">
         <v>44663.0</v>
       </c>
-      <c r="G46" s="67">
+      <c r="G46" s="69">
         <v>1.0</v>
       </c>
       <c r="H46" s="41"/>
@@ -2644,7 +2657,7 @@
       <c r="P46" s="41"/>
       <c r="Q46" s="41"/>
       <c r="R46" s="41"/>
-      <c r="S46" s="84"/>
+      <c r="S46" s="86"/>
       <c r="T46" s="41"/>
       <c r="U46" s="41"/>
       <c r="V46" s="41"/>
@@ -2657,7 +2670,7 @@
       <c r="D47" s="41"/>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
-      <c r="G47" s="82"/>
+      <c r="G47" s="84"/>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
       <c r="J47" s="41"/>
@@ -2677,7 +2690,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="54"/>
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="34"/>
@@ -2690,7 +2703,7 @@
       <c r="F48" s="42">
         <v>44670.0</v>
       </c>
-      <c r="G48" s="67">
+      <c r="G48" s="69">
         <v>1.0</v>
       </c>
       <c r="H48" s="41"/>
@@ -2704,48 +2717,48 @@
       <c r="P48" s="41"/>
       <c r="Q48" s="41"/>
       <c r="R48" s="41"/>
-      <c r="S48" s="72"/>
+      <c r="S48" s="74"/>
       <c r="T48" s="41"/>
       <c r="U48" s="41"/>
       <c r="V48" s="41"/>
       <c r="W48" s="41"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="74"/>
-      <c r="R49" s="74"/>
-      <c r="S49" s="74"/>
-      <c r="T49" s="74"/>
-      <c r="U49" s="74"/>
-      <c r="V49" s="74"/>
-      <c r="W49" s="74"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="76"/>
+      <c r="V49" s="76"/>
+      <c r="W49" s="76"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="78" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="34"/>
-      <c r="D50" s="73" t="s">
+      <c r="D50" s="75" t="s">
         <v>44</v>
       </c>
       <c r="E50" s="42">
@@ -2754,7 +2767,7 @@
       <c r="F50" s="42">
         <v>44691.0</v>
       </c>
-      <c r="G50" s="67">
+      <c r="G50" s="69">
         <v>1.0</v>
       </c>
       <c r="H50" s="53"/>
@@ -2770,7 +2783,7 @@
       <c r="R50" s="53"/>
       <c r="S50" s="53"/>
       <c r="T50" s="53"/>
-      <c r="U50" s="80"/>
+      <c r="U50" s="82"/>
       <c r="V50" s="53"/>
       <c r="W50" s="53"/>
     </row>
@@ -2780,7 +2793,7 @@
         <v>66</v>
       </c>
       <c r="C51" s="34"/>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="75" t="s">
         <v>44</v>
       </c>
       <c r="E51" s="42">
@@ -2789,7 +2802,7 @@
       <c r="F51" s="42">
         <v>44691.0</v>
       </c>
-      <c r="G51" s="67">
+      <c r="G51" s="69">
         <v>1.0</v>
       </c>
       <c r="H51" s="41"/>
@@ -2805,7 +2818,7 @@
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
       <c r="T51" s="41"/>
-      <c r="U51" s="72"/>
+      <c r="U51" s="74"/>
       <c r="V51" s="41"/>
       <c r="W51" s="41"/>
     </row>
@@ -2815,7 +2828,7 @@
         <v>67</v>
       </c>
       <c r="C52" s="34"/>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="75" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="42">
@@ -2824,7 +2837,7 @@
       <c r="F52" s="42">
         <v>44684.0</v>
       </c>
-      <c r="G52" s="67">
+      <c r="G52" s="69">
         <v>1.0</v>
       </c>
       <c r="H52" s="41"/>
@@ -2840,7 +2853,7 @@
       <c r="R52" s="41"/>
       <c r="S52" s="41"/>
       <c r="T52" s="41"/>
-      <c r="U52" s="72"/>
+      <c r="U52" s="74"/>
       <c r="V52" s="41"/>
       <c r="W52" s="41"/>
     </row>
@@ -2850,7 +2863,7 @@
         <v>68</v>
       </c>
       <c r="C53" s="34"/>
-      <c r="D53" s="73" t="s">
+      <c r="D53" s="75" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="42">
@@ -2859,14 +2872,14 @@
       <c r="F53" s="42">
         <v>44691.0</v>
       </c>
-      <c r="G53" s="67">
+      <c r="G53" s="69">
         <v>1.0</v>
       </c>
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
       <c r="J53" s="41"/>
       <c r="K53" s="41"/>
-      <c r="L53" s="71"/>
+      <c r="L53" s="73"/>
       <c r="M53" s="41"/>
       <c r="N53" s="41"/>
       <c r="O53" s="41"/>
@@ -2875,7 +2888,7 @@
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
       <c r="T53" s="41"/>
-      <c r="U53" s="72"/>
+      <c r="U53" s="74"/>
       <c r="V53" s="41"/>
       <c r="W53" s="41"/>
     </row>
@@ -2885,7 +2898,7 @@
         <v>69</v>
       </c>
       <c r="C54" s="34"/>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="75" t="s">
         <v>44</v>
       </c>
       <c r="E54" s="42">
@@ -2894,7 +2907,7 @@
       <c r="F54" s="42">
         <v>44691.0</v>
       </c>
-      <c r="G54" s="67">
+      <c r="G54" s="69">
         <v>1.0</v>
       </c>
       <c r="H54" s="41"/>
@@ -2910,39 +2923,39 @@
       <c r="R54" s="41"/>
       <c r="S54" s="41"/>
       <c r="T54" s="41"/>
-      <c r="U54" s="72"/>
+      <c r="U54" s="74"/>
       <c r="V54" s="41"/>
       <c r="W54" s="41"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="66"/>
-      <c r="R55" s="66"/>
-      <c r="S55" s="66"/>
-      <c r="T55" s="66"/>
-      <c r="U55" s="66"/>
-      <c r="V55" s="66"/>
-      <c r="W55" s="66"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+      <c r="W55" s="68"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="87" t="s">
         <v>71</v>
       </c>
       <c r="B56" s="38" t="s">
@@ -2952,20 +2965,20 @@
       <c r="D56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="86">
+      <c r="E56" s="88">
         <v>44684.0</v>
       </c>
-      <c r="F56" s="86">
+      <c r="F56" s="88">
         <v>44691.0</v>
       </c>
-      <c r="G56" s="67">
+      <c r="G56" s="69">
         <v>1.0</v>
       </c>
       <c r="H56" s="41"/>
       <c r="I56" s="41"/>
       <c r="J56" s="41"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="71"/>
+      <c r="L56" s="73"/>
       <c r="M56" s="46"/>
       <c r="N56" s="41"/>
       <c r="O56" s="41"/>
@@ -2976,7 +2989,7 @@
       <c r="T56" s="41"/>
       <c r="U56" s="41"/>
       <c r="V56" s="41"/>
-      <c r="W56" s="72"/>
+      <c r="W56" s="74"/>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1"/>
